--- a/patient_data/patient_26.xlsx
+++ b/patient_data/patient_26.xlsx
@@ -729,13 +729,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -806,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -883,13 +883,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -945,13 +945,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -960,13 +960,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1084,28 +1084,28 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1161,28 +1161,28 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1318,28 +1318,28 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1395,28 +1395,28 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1484,16 +1484,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1540,16 +1540,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1561,16 +1561,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1617,16 +1617,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1659,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1694,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2073,10 +2073,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2180,13 +2180,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2227,10 +2227,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2272,10 +2272,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2381,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
